--- a/inst/extdata/validation_procedure.xlsx
+++ b/inst/extdata/validation_procedure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{4405295D-6960-4744-ADBA-4C49CC4B1D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4628CA35-5B84-4F3F-BF35-DA28B71A2A3D}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{4405295D-6960-4744-ADBA-4C49CC4B1D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B045C495-433A-458B-857D-3D17D103B4B3}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="3150" windowWidth="19770" windowHeight="12840" xr2:uid="{84F36A32-A2E8-4F77-9CA6-CBEFF17D451F}"/>
+    <workbookView xWindow="11175" yWindow="1380" windowWidth="15810" windowHeight="10275" xr2:uid="{84F36A32-A2E8-4F77-9CA6-CBEFF17D451F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>domainItem_value</t>
   </si>
   <si>
-    <t>dplyr::setDiff</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
 (e.g., 2022-09-27 18:00:00.000)</t>
   </si>
   <si>
-    <t>NA %in% y</t>
-  </si>
-  <si>
     <t>dataType_maxLength</t>
   </si>
   <si>
@@ -126,15 +120,6 @@
     <t>missingValue</t>
   </si>
   <si>
-    <t>length(unique(y)) &gt; 2</t>
-  </si>
-  <si>
-    <t>length(unique(nchar(y))) &gt; 1</t>
-  </si>
-  <si>
-    <t>nchar(y) &gt; fieldWidth</t>
-  </si>
-  <si>
     <t>NAs when allowNull is FALSE in the dictionary</t>
   </si>
   <si>
@@ -144,15 +129,9 @@
     <t>minValue</t>
   </si>
   <si>
-    <t>min(y) &lt; minValue</t>
-  </si>
-  <si>
     <t>maxValue</t>
   </si>
   <si>
-    <t>max(y) &gt; maxValue</t>
-  </si>
-  <si>
     <t>smaller entry values than indicated in the dictionary</t>
   </si>
   <si>
@@ -165,36 +144,46 @@
     <t>larger entry values than allowed for the datatype</t>
   </si>
   <si>
-    <t>match.fun(datatype.rules$RDatatype)</t>
-  </si>
-  <si>
-    <t>max(nchar(y)) &gt; datatype.rules$MaxLength</t>
-  </si>
-  <si>
-    <t>max(nchar(y)) &gt; datatype.rules$MaxPrecision</t>
-  </si>
-  <si>
-    <t>min(y) &lt; datatype.rules$MinValue</t>
-  </si>
-  <si>
-    <t>max(y) &gt; datatype.rules$MaxValue</t>
-  </si>
-  <si>
-    <t>!y %in%  c("%Y-%m-%d", 
-                 "%Y-W%U-%u", 
-                 "%Y-%j", 
-                 "%Y%m%d", 
-                 "%YW%U%u",  
-                 "%YW%U",  
-                 "%Y%j") 
-OR y %in% c("%d-%m-%Y",
-                       "%m-%d-%Y",
-                       "%d%m%Y",
-                        "%m%d%Y")
-OR grepl("AM|PM", y)</t>
-  </si>
-  <si>
-    <t>max(nchar(y)) &gt; datatype.rules$unitsResolution OR min(nchar(y)) &lt; datatype.rules$unitsResolution</t>
+    <t>```dplyr::setDiff```</t>
+  </si>
+  <si>
+    <t>```NA %in% y```</t>
+  </si>
+  <si>
+    <t>```match.fun(datatype.rules$RDatatype)```</t>
+  </si>
+  <si>
+    <t>```!y %in%  c("%Y-%m-%d", "%Y-W%U-%u", "%Y-%j", "%Y%m%d", "%YW%U%u", "%YW%U", "%Y%j") OR y %in% c("%d-%m-%Y", "%m-%d-%Y","%d%m%Y","%m%d%Y") OR !grepl("AM" OR "PM", y)```</t>
+  </si>
+  <si>
+    <t>```max(nchar(y)) &gt; datatype.rules$MaxLength```</t>
+  </si>
+  <si>
+    <t>```max(nchar(y)) &gt; datatype.rules$MaxPrecision```</t>
+  </si>
+  <si>
+    <t>```min(y) &lt; datatype.rules$MinValue```</t>
+  </si>
+  <si>
+    <t>```max(y) &gt; datatype.rules$MaxValue```</t>
+  </si>
+  <si>
+    <t>```length(unique(y)) &gt; 2```</t>
+  </si>
+  <si>
+    <t>```length(unique(nchar(y))) &gt; 1```</t>
+  </si>
+  <si>
+    <t>```max(nchar(y)) &gt; datatype.rules$unitsResolution OR min(nchar(y)) &lt; datatype.rules$unitsResolution```</t>
+  </si>
+  <si>
+    <t>```nchar(y) &gt; fieldWidth```</t>
+  </si>
+  <si>
+    <t>```max(y) &gt; maxValue```</t>
+  </si>
+  <si>
+    <t>```min(y) &lt; minValue```</t>
   </si>
 </sst>
 </file>
@@ -554,14 +543,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31EE1EC-9CD9-4201-86F1-F1B479781CD3}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="3" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,10 +559,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,164 +581,164 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/validation_procedure.xlsx
+++ b/inst/extdata/validation_procedure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{4405295D-6960-4744-ADBA-4C49CC4B1D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B045C495-433A-458B-857D-3D17D103B4B3}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{4405295D-6960-4744-ADBA-4C49CC4B1D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B57E3AF1-1318-416B-9C4D-539426526748}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="1380" windowWidth="15810" windowHeight="10275" xr2:uid="{84F36A32-A2E8-4F77-9CA6-CBEFF17D451F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84F36A32-A2E8-4F77-9CA6-CBEFF17D451F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,59 +144,68 @@
     <t>larger entry values than allowed for the datatype</t>
   </si>
   <si>
-    <t>```dplyr::setDiff```</t>
-  </si>
-  <si>
-    <t>```NA %in% y```</t>
-  </si>
-  <si>
-    <t>```match.fun(datatype.rules$RDatatype)```</t>
-  </si>
-  <si>
-    <t>```!y %in%  c("%Y-%m-%d", "%Y-W%U-%u", "%Y-%j", "%Y%m%d", "%YW%U%u", "%YW%U", "%Y%j") OR y %in% c("%d-%m-%Y", "%m-%d-%Y","%d%m%Y","%m%d%Y") OR !grepl("AM" OR "PM", y)```</t>
-  </si>
-  <si>
-    <t>```max(nchar(y)) &gt; datatype.rules$MaxLength```</t>
-  </si>
-  <si>
-    <t>```max(nchar(y)) &gt; datatype.rules$MaxPrecision```</t>
-  </si>
-  <si>
-    <t>```min(y) &lt; datatype.rules$MinValue```</t>
-  </si>
-  <si>
-    <t>```max(y) &gt; datatype.rules$MaxValue```</t>
-  </si>
-  <si>
-    <t>```length(unique(y)) &gt; 2```</t>
-  </si>
-  <si>
-    <t>```length(unique(nchar(y))) &gt; 1```</t>
-  </si>
-  <si>
-    <t>```max(nchar(y)) &gt; datatype.rules$unitsResolution OR min(nchar(y)) &lt; datatype.rules$unitsResolution```</t>
-  </si>
-  <si>
-    <t>```nchar(y) &gt; fieldWidth```</t>
-  </si>
-  <si>
-    <t>```max(y) &gt; maxValue```</t>
-  </si>
-  <si>
-    <t>```min(y) &lt; minValue```</t>
+    <t>dplyr::setDiff</t>
+  </si>
+  <si>
+    <t>NA %in% y</t>
+  </si>
+  <si>
+    <t>match.fun(datatype.rules$RDatatype)</t>
+  </si>
+  <si>
+    <t>max(nchar(y)) &gt; datatype.rules$MaxLength</t>
+  </si>
+  <si>
+    <t>max(nchar(y)) &gt; datatype.rules$MaxPrecision</t>
+  </si>
+  <si>
+    <t>min(y) &lt; datatype.rules$MinValue</t>
+  </si>
+  <si>
+    <t>max(y) &gt; datatype.rules$MaxValue</t>
+  </si>
+  <si>
+    <t>length(unique(y)) &gt; 2</t>
+  </si>
+  <si>
+    <t>length(unique(nchar(y))) &gt; 1</t>
+  </si>
+  <si>
+    <t>nchar(y) &gt; fieldWidth</t>
+  </si>
+  <si>
+    <t>min(y) &lt; minValue</t>
+  </si>
+  <si>
+    <t>max(y) &gt; maxValue</t>
+  </si>
+  <si>
+    <t>!y %in%  c("%Y-%m-%d", "%Y-W%U-%u", "%Y-%j", "%Y%m%d", "%YW%U%u", "%YW%U", "%Y%j") 
+OR y %in% c("%d-%m-%Y", "%m-%d-%Y","%d%m%Y","%m%d%Y") 
+OR !grepl("AM" OR "PM", y)</t>
+  </si>
+  <si>
+    <t>max(nchar(y)) &gt; datatype.rules$unitsResolution 
+OR min(nchar(y)) &lt; datatype.rules$unitsResolution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,13 +228,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,14 +559,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31EE1EC-9CD9-4201-86F1-F1B479781CD3}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" customWidth="1"/>
     <col min="3" max="3" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -569,7 +585,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C2" t="s">
@@ -580,7 +596,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C3" t="s">
@@ -591,7 +607,7 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
@@ -602,19 +618,19 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -624,19 +640,19 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -646,8 +662,8 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -657,8 +673,8 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -668,8 +684,8 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -679,19 +695,19 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>44</v>
+      <c r="B12" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>45</v>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -701,8 +717,8 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -712,7 +728,7 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
@@ -723,8 +739,8 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -734,8 +750,8 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -743,5 +759,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/extdata/validation_procedure.xlsx
+++ b/inst/extdata/validation_procedure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{4405295D-6960-4744-ADBA-4C49CC4B1D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B57E3AF1-1318-416B-9C4D-539426526748}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{4405295D-6960-4744-ADBA-4C49CC4B1D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F704E29-1057-4B1F-B611-6BDE8511F090}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84F36A32-A2E8-4F77-9CA6-CBEFF17D451F}"/>
   </bookViews>
@@ -185,8 +185,8 @@
 OR !grepl("AM" OR "PM", y)</t>
   </si>
   <si>
-    <t>max(nchar(y)) &gt; datatype.rules$unitsResolution 
-OR min(nchar(y)) &lt; datatype.rules$unitsResolution</t>
+    <t>| max(nchar(y)) &gt; datatype.rules$unitsResolution 
+OR min(nchar(y)) &lt; datatype.rules$unitsResolution |</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/validation_procedure.xlsx
+++ b/inst/extdata/validation_procedure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/hannah_vincelette_fws_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{4405295D-6960-4744-ADBA-4C49CC4B1D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F704E29-1057-4B1F-B611-6BDE8511F090}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{4405295D-6960-4744-ADBA-4C49CC4B1D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A44EF5E-E316-498F-8B27-57CDFC92B802}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84F36A32-A2E8-4F77-9CA6-CBEFF17D451F}"/>
   </bookViews>
@@ -185,8 +185,8 @@
 OR !grepl("AM" OR "PM", y)</t>
   </si>
   <si>
-    <t>| max(nchar(y)) &gt; datatype.rules$unitsResolution 
-OR min(nchar(y)) &lt; datatype.rules$unitsResolution |</t>
+    <t>max(nchar(y)) &gt; datatype.rules$unitsResolution 
+OR min(nchar(y)) &lt; datatype.rules$unitsResolution</t>
   </si>
 </sst>
 </file>
